--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
@@ -534,22 +534,22 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.143010666666667</v>
+        <v>0.4460406666666667</v>
       </c>
       <c r="H2">
-        <v>3.429032</v>
+        <v>1.338122</v>
       </c>
       <c r="I2">
-        <v>0.003608506296604248</v>
+        <v>0.001628842357811546</v>
       </c>
       <c r="J2">
-        <v>0.003608506296604249</v>
+        <v>0.001628842357811545</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.07131815054666667</v>
+        <v>0.02783070739666667</v>
       </c>
       <c r="R2">
-        <v>0.6418633549199999</v>
+        <v>0.25047636657</v>
       </c>
       <c r="S2">
-        <v>0.003608506296604248</v>
+        <v>0.001628842357811546</v>
       </c>
       <c r="T2">
-        <v>0.003608506296604249</v>
+        <v>0.001628842357811545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.3442863333333</v>
+        <v>145.8660203333333</v>
       </c>
       <c r="H3">
-        <v>433.032859</v>
+        <v>437.598061</v>
       </c>
       <c r="I3">
-        <v>0.4556976424652904</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="J3">
-        <v>0.4556976424652905</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>9.006361745768334</v>
+        <v>9.101310338698333</v>
       </c>
       <c r="R3">
-        <v>81.057255711915</v>
+        <v>81.91179304828499</v>
       </c>
       <c r="S3">
-        <v>0.4556976424652904</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="T3">
-        <v>0.4556976424652905</v>
+        <v>0.5326706066061244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2668276666666667</v>
+        <v>0.150912</v>
       </c>
       <c r="H4">
-        <v>0.8004830000000001</v>
+        <v>0.452736</v>
       </c>
       <c r="I4">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="J4">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.01664871226166667</v>
+        <v>0.009416154239999999</v>
       </c>
       <c r="R4">
-        <v>0.149838410355</v>
+        <v>0.08474538815999999</v>
       </c>
       <c r="S4">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="T4">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>171.0003916666667</v>
+        <v>127.376091</v>
       </c>
       <c r="H5">
-        <v>513.001175</v>
+        <v>382.128273</v>
       </c>
       <c r="I5">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="J5">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>10.66956943804167</v>
+        <v>7.947631197945001</v>
       </c>
       <c r="R5">
-        <v>96.02612494237499</v>
+        <v>71.528680781505</v>
       </c>
       <c r="S5">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="T5">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
     </row>
   </sheetData>
